--- a/기획/테이블/캐릭터/NPC/NPC 스크립트 테이블.xlsx
+++ b/기획/테이블/캐릭터/NPC/NPC 스크립트 테이블.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\addmin\Desktop\Unreal\UnrealProject\기획\테이블\캐릭터\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\addmin\Desktop\Unreal\UnrealProject\기획\테이블\캐릭터\NPC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{39116A45-FC98-4587-B6C6-BF1616DE53FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52C3D0BA-EDF5-4370-B840-4B5E6AFFB397}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3675" yWindow="2280" windowWidth="20220" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6705" yWindow="4920" windowWidth="20205" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="NPC 스크립트 테이블" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="31">
   <si>
     <t>Name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -88,6 +88,64 @@
   </si>
   <si>
     <t>말풍선 테스트인데….</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>???</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>…..기이하구나. 말라버렸다 여긴 사구에 새로운 '바람의 아이'라?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>어쩌면 길운의 바람이 이곳에 남았을 지도 모르겠어.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이야. 모래 속에서 빚어진 아이야. 네가 누군지 알겠느냐?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>영특하구나. 처지를 안다면 이야기 또한 빠르지.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그러겠지. 막 빗어낸 반죽 위에 무언갈 얹을 순 없는 노릇이야.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>너는 '바람의 아이'란다. 모래로 빗어진 아이야.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대도시 설란이 무너지고, 사구는 수 많은 바람의 아이의 요람이 되었단다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>너도, 그런 아이들 중 하나란다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>곤란하게도, 이곳의 벌바람은 아직 거쌘 상황이야.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>저 모래폭풍을 뚫고 이곳을 벗어날 방법을 찾기 전까진, 여기에 머물러야겠어.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보람</t>
+  </si>
+  <si>
+    <t>내 이름은 보람이란다. 사구가 빗어내는 요람 속에 기연을 만나게 되어 반갑구나.</t>
+  </si>
+  <si>
+    <t>보람</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>곤란하게 되었구나…..</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -413,15 +471,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="35.125" customWidth="1"/>
+    <col min="3" max="3" width="74.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
@@ -474,105 +532,273 @@
         <v>8</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>1500</v>
+        <v>503</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D5">
-        <v>1501</v>
+        <v>504</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>1501</v>
+        <v>504</v>
       </c>
       <c r="B6" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="C6" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>505</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>5000</v>
+        <v>505</v>
       </c>
       <c r="B7" t="s">
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="C7" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="D7">
-        <v>5001</v>
+        <v>506</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>5001</v>
+        <v>506</v>
       </c>
       <c r="B8" t="s">
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="C8" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="D8">
-        <v>5002</v>
+        <v>2001</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>5002</v>
+        <v>507</v>
       </c>
       <c r="B9" t="s">
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="C9" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D9">
-        <v>5003</v>
+        <v>512</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>5003</v>
+        <v>508</v>
       </c>
       <c r="B10" t="s">
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="C10" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>509</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11">
+        <v>509</v>
+      </c>
+      <c r="B11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>510</v>
+      </c>
+      <c r="B12" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>511</v>
+      </c>
+      <c r="B13" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>512</v>
+      </c>
+      <c r="B14" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>513</v>
+      </c>
+      <c r="B15" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>1500</v>
+      </c>
+      <c r="B16" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16">
+        <v>1501</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>1501</v>
+      </c>
+      <c r="B17" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" t="s">
+        <v>10</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>5000</v>
+      </c>
+      <c r="B18" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18" t="s">
+        <v>11</v>
+      </c>
+      <c r="D18">
+        <v>5001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>5001</v>
+      </c>
+      <c r="B19" t="s">
+        <v>5</v>
+      </c>
+      <c r="C19" t="s">
+        <v>12</v>
+      </c>
+      <c r="D19">
+        <v>5002</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>5002</v>
+      </c>
+      <c r="B20" t="s">
+        <v>5</v>
+      </c>
+      <c r="C20" t="s">
+        <v>13</v>
+      </c>
+      <c r="D20">
+        <v>5003</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>5003</v>
+      </c>
+      <c r="B21" t="s">
+        <v>5</v>
+      </c>
+      <c r="C21" t="s">
+        <v>14</v>
+      </c>
+      <c r="D21">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22">
         <v>10000</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B22" t="s">
         <v>5</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C22" t="s">
         <v>15</v>
       </c>
-      <c r="D11">
+      <c r="D22">
         <v>500</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>10001</v>
+      </c>
+      <c r="B23" t="s">
+        <v>29</v>
+      </c>
+      <c r="C23" t="s">
+        <v>30</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
